--- a/Code/Results/Cases/Case_5_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_224/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012072893844433</v>
+        <v>1.035981583171684</v>
       </c>
       <c r="D2">
-        <v>1.030322958788105</v>
+        <v>1.043259295599308</v>
       </c>
       <c r="E2">
-        <v>1.016857569991891</v>
+        <v>1.034964889398478</v>
       </c>
       <c r="F2">
-        <v>1.031044463144336</v>
+        <v>1.050552412143832</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051059411000305</v>
+        <v>1.04062089495411</v>
       </c>
       <c r="J2">
-        <v>1.033898406832876</v>
+        <v>1.041092390456456</v>
       </c>
       <c r="K2">
-        <v>1.041375411933456</v>
+        <v>1.046033665589698</v>
       </c>
       <c r="L2">
-        <v>1.028086943387322</v>
+        <v>1.037762851298454</v>
       </c>
       <c r="M2">
-        <v>1.042087599720159</v>
+        <v>1.053306371980609</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016178760159669</v>
+        <v>1.036848356035098</v>
       </c>
       <c r="D3">
-        <v>1.033460219713669</v>
+        <v>1.043943365355207</v>
       </c>
       <c r="E3">
-        <v>1.020116986191457</v>
+        <v>1.035699518811473</v>
       </c>
       <c r="F3">
-        <v>1.03487340668186</v>
+        <v>1.051417456946366</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052442639635784</v>
+        <v>1.04085231878188</v>
       </c>
       <c r="J3">
-        <v>1.036237886339593</v>
+        <v>1.041603354871949</v>
       </c>
       <c r="K3">
-        <v>1.043682148764137</v>
+        <v>1.046529066063775</v>
       </c>
       <c r="L3">
-        <v>1.030498777646431</v>
+        <v>1.038306976380272</v>
       </c>
       <c r="M3">
-        <v>1.045078703527597</v>
+        <v>1.053983750560194</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018784873610132</v>
+        <v>1.037409729516642</v>
       </c>
       <c r="D4">
-        <v>1.035454083980506</v>
+        <v>1.044386415440683</v>
       </c>
       <c r="E4">
-        <v>1.022191513682862</v>
+        <v>1.036175693641937</v>
       </c>
       <c r="F4">
-        <v>1.037309044050781</v>
+        <v>1.051978085168056</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053310605678318</v>
+        <v>1.041000964028836</v>
       </c>
       <c r="J4">
-        <v>1.037719967866586</v>
+        <v>1.041933844084614</v>
       </c>
       <c r="K4">
-        <v>1.045142641762345</v>
+        <v>1.046849355131162</v>
       </c>
       <c r="L4">
-        <v>1.032029285777353</v>
+        <v>1.038659214109822</v>
       </c>
       <c r="M4">
-        <v>1.046977105952931</v>
+        <v>1.054422303318093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019868743675693</v>
+        <v>1.037645852393097</v>
       </c>
       <c r="D5">
-        <v>1.036283893453722</v>
+        <v>1.0445727704747</v>
       </c>
       <c r="E5">
-        <v>1.023055626304446</v>
+        <v>1.036376072272099</v>
       </c>
       <c r="F5">
-        <v>1.038323253244511</v>
+        <v>1.052213983691402</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053669150512056</v>
+        <v>1.04106319003654</v>
       </c>
       <c r="J5">
-        <v>1.03833564418388</v>
+        <v>1.042072747288372</v>
       </c>
       <c r="K5">
-        <v>1.045749140442405</v>
+        <v>1.046983939212209</v>
       </c>
       <c r="L5">
-        <v>1.032665701188755</v>
+        <v>1.038807330049264</v>
       </c>
       <c r="M5">
-        <v>1.047766574915364</v>
+        <v>1.054606727682174</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020050052724853</v>
+        <v>1.037685505543327</v>
       </c>
       <c r="D6">
-        <v>1.036422735789773</v>
+        <v>1.044604065931539</v>
       </c>
       <c r="E6">
-        <v>1.023200251421857</v>
+        <v>1.036409728095722</v>
       </c>
       <c r="F6">
-        <v>1.038492981435901</v>
+        <v>1.052253604378659</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053728983288527</v>
+        <v>1.04107362252708</v>
       </c>
       <c r="J6">
-        <v>1.038438591273315</v>
+        <v>1.042096067691757</v>
       </c>
       <c r="K6">
-        <v>1.045850540437164</v>
+        <v>1.047006532597862</v>
       </c>
       <c r="L6">
-        <v>1.032772152655292</v>
+        <v>1.038832201393719</v>
       </c>
       <c r="M6">
-        <v>1.047898631804107</v>
+        <v>1.054637696630247</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018799401964431</v>
+        <v>1.037412884126627</v>
       </c>
       <c r="D7">
-        <v>1.035465204668548</v>
+        <v>1.044388905147593</v>
       </c>
       <c r="E7">
-        <v>1.022203091184014</v>
+        <v>1.036178370347967</v>
       </c>
       <c r="F7">
-        <v>1.037322633806353</v>
+        <v>1.051981236431108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053315421342192</v>
+        <v>1.041001796535876</v>
       </c>
       <c r="J7">
-        <v>1.037728223341837</v>
+        <v>1.041935700252936</v>
       </c>
       <c r="K7">
-        <v>1.045150775012825</v>
+        <v>1.046851153708946</v>
       </c>
       <c r="L7">
-        <v>1.032037816879776</v>
+        <v>1.038661193105571</v>
       </c>
       <c r="M7">
-        <v>1.046987688422332</v>
+        <v>1.054424767384248</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013471218176692</v>
+        <v>1.036274405919202</v>
       </c>
       <c r="D8">
-        <v>1.031390846972863</v>
+        <v>1.043490394030603</v>
       </c>
       <c r="E8">
-        <v>1.017966408213078</v>
+        <v>1.035212989945838</v>
       </c>
       <c r="F8">
-        <v>1.032347347885719</v>
+        <v>1.050844573478876</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051532568286231</v>
+        <v>1.040699333320647</v>
       </c>
       <c r="J8">
-        <v>1.034695737261299</v>
+        <v>1.041265101317679</v>
       </c>
       <c r="K8">
-        <v>1.042161756547069</v>
+        <v>1.046201143277331</v>
       </c>
       <c r="L8">
-        <v>1.028908390650536</v>
+        <v>1.037946708582463</v>
       </c>
       <c r="M8">
-        <v>1.043106280091074</v>
+        <v>1.053535243909376</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003675997397897</v>
+        <v>1.034272259221552</v>
       </c>
       <c r="D9">
-        <v>1.023922903659414</v>
+        <v>1.04191032564214</v>
       </c>
       <c r="E9">
-        <v>1.010224640289226</v>
+        <v>1.03351822497897</v>
       </c>
       <c r="F9">
-        <v>1.023244438359621</v>
+        <v>1.048848495713122</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04817725437654</v>
+        <v>1.040157952624649</v>
       </c>
       <c r="J9">
-        <v>1.029099611199529</v>
+        <v>1.040082409325875</v>
       </c>
       <c r="K9">
-        <v>1.036639416095432</v>
+        <v>1.04505374295752</v>
       </c>
       <c r="L9">
-        <v>1.023153979720411</v>
+        <v>1.036688919936835</v>
       </c>
       <c r="M9">
-        <v>1.03597132086915</v>
+        <v>1.0519697219371</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9968456245776612</v>
+        <v>1.03294026907444</v>
       </c>
       <c r="D10">
-        <v>1.018733401821774</v>
+        <v>1.040859212791867</v>
       </c>
       <c r="E10">
-        <v>1.004860517368101</v>
+        <v>1.032392757582808</v>
       </c>
       <c r="F10">
-        <v>1.016928576155822</v>
+        <v>1.047522500707305</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045787330297493</v>
+        <v>1.039791428730079</v>
       </c>
       <c r="J10">
-        <v>1.025184955389633</v>
+        <v>1.039293339574344</v>
       </c>
       <c r="K10">
-        <v>1.032772460788794</v>
+        <v>1.044287539338563</v>
       </c>
       <c r="L10">
-        <v>1.019142564739143</v>
+        <v>1.035851294112001</v>
       </c>
       <c r="M10">
-        <v>1.030998761981065</v>
+        <v>1.050927429659646</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9938102956081465</v>
+        <v>1.032364178774991</v>
       </c>
       <c r="D11">
-        <v>1.016432221762325</v>
+        <v>1.040404627671755</v>
       </c>
       <c r="E11">
-        <v>1.002485540007838</v>
+        <v>1.031906476908553</v>
       </c>
       <c r="F11">
-        <v>1.014129964268601</v>
+        <v>1.046949472897795</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044713918178374</v>
+        <v>1.039631400303726</v>
       </c>
       <c r="J11">
-        <v>1.023442860013203</v>
+        <v>1.038951534311405</v>
       </c>
       <c r="K11">
-        <v>1.031050764084302</v>
+        <v>1.043955478977021</v>
       </c>
       <c r="L11">
-        <v>1.017360734417693</v>
+        <v>1.035488822469964</v>
       </c>
       <c r="M11">
-        <v>1.02879024066182</v>
+        <v>1.050476453974149</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9926705679434117</v>
+        <v>1.032150295317041</v>
       </c>
       <c r="D12">
-        <v>1.015568965645643</v>
+        <v>1.040235859381373</v>
       </c>
       <c r="E12">
-        <v>1.001595139197235</v>
+        <v>1.031726010701301</v>
       </c>
       <c r="F12">
-        <v>1.013080383035829</v>
+        <v>1.046736797438588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044309206774372</v>
+        <v>1.039571760875345</v>
       </c>
       <c r="J12">
-        <v>1.02278839463323</v>
+        <v>1.038824553849997</v>
       </c>
       <c r="K12">
-        <v>1.030403846207972</v>
+        <v>1.043832094769757</v>
       </c>
       <c r="L12">
-        <v>1.016691842533284</v>
+        <v>1.035354219590471</v>
       </c>
       <c r="M12">
-        <v>1.027961202085963</v>
+        <v>1.050308994683799</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9929156086359615</v>
+        <v>1.032196169400141</v>
       </c>
       <c r="D13">
-        <v>1.015754527612673</v>
+        <v>1.040272056885355</v>
       </c>
       <c r="E13">
-        <v>1.001786511810248</v>
+        <v>1.031764714043583</v>
       </c>
       <c r="F13">
-        <v>1.013305984459484</v>
+        <v>1.04678240920795</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0443962936188</v>
+        <v>1.039584562671626</v>
       </c>
       <c r="J13">
-        <v>1.022929118518876</v>
+        <v>1.038851792420162</v>
       </c>
       <c r="K13">
-        <v>1.030542952310215</v>
+        <v>1.043858562991032</v>
       </c>
       <c r="L13">
-        <v>1.016835645756948</v>
+        <v>1.035383090750169</v>
       </c>
       <c r="M13">
-        <v>1.028139433461547</v>
+        <v>1.050344912840161</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9937163392565976</v>
+        <v>1.032346497009902</v>
       </c>
       <c r="D14">
-        <v>1.016361040255874</v>
+        <v>1.040390675491325</v>
       </c>
       <c r="E14">
-        <v>1.002412109301806</v>
+        <v>1.031891556239931</v>
       </c>
       <c r="F14">
-        <v>1.01404341341538</v>
+        <v>1.046931889546962</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044680588203732</v>
+        <v>1.039626474519612</v>
       </c>
       <c r="J14">
-        <v>1.023388913972727</v>
+        <v>1.038941038442817</v>
       </c>
       <c r="K14">
-        <v>1.030997442469624</v>
+        <v>1.04394528085376</v>
       </c>
       <c r="L14">
-        <v>1.017305589039959</v>
+        <v>1.035477695427849</v>
       </c>
       <c r="M14">
-        <v>1.028721891717046</v>
+        <v>1.050462610643783</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9942080513791319</v>
+        <v>1.032439132387908</v>
       </c>
       <c r="D15">
-        <v>1.016733595589689</v>
+        <v>1.040463771624831</v>
       </c>
       <c r="E15">
-        <v>1.002796458632363</v>
+        <v>1.031969729167744</v>
       </c>
       <c r="F15">
-        <v>1.014496421290397</v>
+        <v>1.047024012239965</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044854950286858</v>
+        <v>1.0396522716115</v>
       </c>
       <c r="J15">
-        <v>1.023671222495995</v>
+        <v>1.038996023411599</v>
       </c>
       <c r="K15">
-        <v>1.031276478601121</v>
+        <v>1.043998705035564</v>
       </c>
       <c r="L15">
-        <v>1.017594194327417</v>
+        <v>1.035535989198768</v>
       </c>
       <c r="M15">
-        <v>1.029079599592581</v>
+        <v>1.050535135234495</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9970453818692202</v>
+        <v>1.03297851653366</v>
       </c>
       <c r="D16">
-        <v>1.018884952941689</v>
+        <v>1.04088939391795</v>
       </c>
       <c r="E16">
-        <v>1.005017003923231</v>
+        <v>1.032425052785473</v>
       </c>
       <c r="F16">
-        <v>1.017112927379877</v>
+        <v>1.047560554779647</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045857739492581</v>
+        <v>1.039802021517811</v>
       </c>
       <c r="J16">
-        <v>1.025299555858573</v>
+        <v>1.039316021366594</v>
       </c>
       <c r="K16">
-        <v>1.032885702823484</v>
+        <v>1.044309571104813</v>
       </c>
       <c r="L16">
-        <v>1.019259848507621</v>
+        <v>1.035875355030293</v>
       </c>
       <c r="M16">
-        <v>1.03114413604254</v>
+        <v>1.050957366802308</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9988039461597589</v>
+        <v>1.03331703840869</v>
       </c>
       <c r="D17">
-        <v>1.020219707249209</v>
+        <v>1.041156524959712</v>
       </c>
       <c r="E17">
-        <v>1.006395639895202</v>
+        <v>1.0327109486945</v>
       </c>
       <c r="F17">
-        <v>1.018736790197172</v>
+        <v>1.047897419354643</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046476298291947</v>
+        <v>1.039895602489991</v>
       </c>
       <c r="J17">
-        <v>1.026308164671272</v>
+        <v>1.039516712902177</v>
       </c>
       <c r="K17">
-        <v>1.033882262578485</v>
+        <v>1.044504492638904</v>
       </c>
       <c r="L17">
-        <v>1.020292452017736</v>
+        <v>1.036088291634855</v>
       </c>
       <c r="M17">
-        <v>1.032424082135232</v>
+        <v>1.051222314610032</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9998222288741057</v>
+        <v>1.033514557061471</v>
       </c>
       <c r="D18">
-        <v>1.02099305384704</v>
+        <v>1.04131239128647</v>
       </c>
       <c r="E18">
-        <v>1.007194757425936</v>
+        <v>1.032877808535118</v>
       </c>
       <c r="F18">
-        <v>1.019677838909478</v>
+        <v>1.048094016324164</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046833387287698</v>
+        <v>1.039950059164907</v>
       </c>
       <c r="J18">
-        <v>1.0268919538708</v>
+        <v>1.039633759981075</v>
       </c>
       <c r="K18">
-        <v>1.034458998428011</v>
+        <v>1.044618159091394</v>
       </c>
       <c r="L18">
-        <v>1.020890444987107</v>
+        <v>1.036212515659937</v>
       </c>
       <c r="M18">
-        <v>1.033165337196651</v>
+        <v>1.051376887248904</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000168189341053</v>
+        <v>1.03358191672635</v>
       </c>
       <c r="D19">
-        <v>1.021255875066233</v>
+        <v>1.041365546667061</v>
       </c>
       <c r="E19">
-        <v>1.007466395805213</v>
+        <v>1.032934720608604</v>
       </c>
       <c r="F19">
-        <v>1.019997687349776</v>
+        <v>1.048161069339286</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046954522851178</v>
+        <v>1.039968605831061</v>
       </c>
       <c r="J19">
-        <v>1.027090254104722</v>
+        <v>1.039673667786167</v>
       </c>
       <c r="K19">
-        <v>1.034654889092307</v>
+        <v>1.044656911630708</v>
       </c>
       <c r="L19">
-        <v>1.021093623401495</v>
+        <v>1.036254876484652</v>
       </c>
       <c r="M19">
-        <v>1.033417195424216</v>
+        <v>1.051429598086596</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9986160444450879</v>
+        <v>1.03328071152604</v>
       </c>
       <c r="D20">
-        <v>1.020077040476358</v>
+        <v>1.041127858800845</v>
       </c>
       <c r="E20">
-        <v>1.006248246922817</v>
+        <v>1.032680264248443</v>
       </c>
       <c r="F20">
-        <v>1.018563201698877</v>
+        <v>1.047861265628302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046410317547445</v>
+        <v>1.039885575322236</v>
       </c>
       <c r="J20">
-        <v>1.02620041969709</v>
+        <v>1.039495181925265</v>
       </c>
       <c r="K20">
-        <v>1.03377581291234</v>
+        <v>1.044483582288247</v>
       </c>
       <c r="L20">
-        <v>1.020182111062856</v>
+        <v>1.036065443297878</v>
       </c>
       <c r="M20">
-        <v>1.03228730852479</v>
+        <v>1.051193884786678</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9934808877467177</v>
+        <v>1.032302226444815</v>
       </c>
       <c r="D21">
-        <v>1.016182674986507</v>
+        <v>1.040355742912228</v>
       </c>
       <c r="E21">
-        <v>1.00222811669975</v>
+        <v>1.031854199941622</v>
       </c>
       <c r="F21">
-        <v>1.013826540346625</v>
+        <v>1.046887866534261</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044597037830731</v>
+        <v>1.039614137977768</v>
       </c>
       <c r="J21">
-        <v>1.023253721795155</v>
+        <v>1.038914758222056</v>
       </c>
       <c r="K21">
-        <v>1.030863813306943</v>
+        <v>1.043919745759685</v>
       </c>
       <c r="L21">
-        <v>1.017167399324775</v>
+        <v>1.035449835725399</v>
       </c>
       <c r="M21">
-        <v>1.028550615454576</v>
+        <v>1.050427950094546</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9901808911697166</v>
+        <v>1.031687605642651</v>
       </c>
       <c r="D22">
-        <v>1.013684782147408</v>
+        <v>1.039870774832715</v>
       </c>
       <c r="E22">
-        <v>0.9996526917882892</v>
+        <v>1.031335747586074</v>
       </c>
       <c r="F22">
-        <v>1.010790002606507</v>
+        <v>1.046276851292288</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043422141221611</v>
+        <v>1.039442330820628</v>
       </c>
       <c r="J22">
-        <v>1.021358187466297</v>
+        <v>1.038549714808012</v>
       </c>
       <c r="K22">
-        <v>1.028989929631913</v>
+        <v>1.043564995788027</v>
       </c>
       <c r="L22">
-        <v>1.01523103206332</v>
+        <v>1.035062983265976</v>
       </c>
       <c r="M22">
-        <v>1.026150695675289</v>
+        <v>1.049946684864848</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9919372500562145</v>
+        <v>1.032013371201166</v>
       </c>
       <c r="D23">
-        <v>1.015013769278479</v>
+        <v>1.040127818407934</v>
       </c>
       <c r="E23">
-        <v>1.001022636039382</v>
+        <v>1.031610500542396</v>
       </c>
       <c r="F23">
-        <v>1.012405428678029</v>
+        <v>1.046600666701554</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044048348182764</v>
+        <v>1.039533517208406</v>
       </c>
       <c r="J23">
-        <v>1.022367213898026</v>
+        <v>1.03874324106725</v>
       </c>
       <c r="K23">
-        <v>1.029987491148209</v>
+        <v>1.043753078134826</v>
       </c>
       <c r="L23">
-        <v>1.016261519019232</v>
+        <v>1.03526804126252</v>
       </c>
       <c r="M23">
-        <v>1.027427858399754</v>
+        <v>1.050201782938829</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9987009721465941</v>
+        <v>1.033297125881278</v>
       </c>
       <c r="D24">
-        <v>1.02014152147156</v>
+        <v>1.041140811639603</v>
       </c>
       <c r="E24">
-        <v>1.00631486294143</v>
+        <v>1.032694128915125</v>
       </c>
       <c r="F24">
-        <v>1.01864165775765</v>
+        <v>1.047877601602702</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046440142843199</v>
+        <v>1.039890106561836</v>
       </c>
       <c r="J24">
-        <v>1.026249118944342</v>
+        <v>1.039504910886932</v>
       </c>
       <c r="K24">
-        <v>1.033823926944616</v>
+        <v>1.044493030862231</v>
       </c>
       <c r="L24">
-        <v>1.020231982679692</v>
+        <v>1.036075767410948</v>
       </c>
       <c r="M24">
-        <v>1.032349127032473</v>
+        <v>1.051206730898116</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006259131888163</v>
+        <v>1.03478937950228</v>
       </c>
       <c r="D25">
-        <v>1.025889411836254</v>
+        <v>1.042318419033517</v>
       </c>
       <c r="E25">
-        <v>1.012260519924649</v>
+        <v>1.033955598429503</v>
       </c>
       <c r="F25">
-        <v>1.025639691567579</v>
+        <v>1.049363704881868</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049070938652445</v>
+        <v>1.040298903491952</v>
       </c>
       <c r="J25">
-        <v>1.030577671869992</v>
+        <v>1.040388276015139</v>
       </c>
       <c r="K25">
-        <v>1.038098694972195</v>
+        <v>1.045350602710318</v>
       </c>
       <c r="L25">
-        <v>1.024671442502041</v>
+        <v>1.037013935447001</v>
       </c>
       <c r="M25">
-        <v>1.037852608183552</v>
+        <v>1.05237420865781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_224/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_224/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035981583171684</v>
+        <v>1.012072893844432</v>
       </c>
       <c r="D2">
-        <v>1.043259295599308</v>
+        <v>1.030322958788104</v>
       </c>
       <c r="E2">
-        <v>1.034964889398478</v>
+        <v>1.01685756999189</v>
       </c>
       <c r="F2">
-        <v>1.050552412143832</v>
+        <v>1.031044463144335</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04062089495411</v>
+        <v>1.051059411000304</v>
       </c>
       <c r="J2">
-        <v>1.041092390456456</v>
+        <v>1.033898406832875</v>
       </c>
       <c r="K2">
-        <v>1.046033665589698</v>
+        <v>1.041375411933456</v>
       </c>
       <c r="L2">
-        <v>1.037762851298454</v>
+        <v>1.028086943387321</v>
       </c>
       <c r="M2">
-        <v>1.053306371980609</v>
+        <v>1.042087599720159</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036848356035098</v>
+        <v>1.016178760159669</v>
       </c>
       <c r="D3">
-        <v>1.043943365355207</v>
+        <v>1.033460219713668</v>
       </c>
       <c r="E3">
-        <v>1.035699518811473</v>
+        <v>1.020116986191456</v>
       </c>
       <c r="F3">
-        <v>1.051417456946366</v>
+        <v>1.034873406681858</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04085231878188</v>
+        <v>1.052442639635783</v>
       </c>
       <c r="J3">
-        <v>1.041603354871949</v>
+        <v>1.036237886339592</v>
       </c>
       <c r="K3">
-        <v>1.046529066063775</v>
+        <v>1.043682148764136</v>
       </c>
       <c r="L3">
-        <v>1.038306976380272</v>
+        <v>1.03049877764643</v>
       </c>
       <c r="M3">
-        <v>1.053983750560194</v>
+        <v>1.045078703527596</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037409729516642</v>
+        <v>1.018784873610131</v>
       </c>
       <c r="D4">
-        <v>1.044386415440683</v>
+        <v>1.035454083980506</v>
       </c>
       <c r="E4">
-        <v>1.036175693641937</v>
+        <v>1.022191513682861</v>
       </c>
       <c r="F4">
-        <v>1.051978085168056</v>
+        <v>1.03730904405078</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041000964028836</v>
+        <v>1.053310605678317</v>
       </c>
       <c r="J4">
-        <v>1.041933844084614</v>
+        <v>1.037719967866585</v>
       </c>
       <c r="K4">
-        <v>1.046849355131162</v>
+        <v>1.045142641762344</v>
       </c>
       <c r="L4">
-        <v>1.038659214109822</v>
+        <v>1.032029285777352</v>
       </c>
       <c r="M4">
-        <v>1.054422303318093</v>
+        <v>1.04697710595293</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037645852393097</v>
+        <v>1.019868743675693</v>
       </c>
       <c r="D5">
-        <v>1.0445727704747</v>
+        <v>1.036283893453722</v>
       </c>
       <c r="E5">
-        <v>1.036376072272099</v>
+        <v>1.023055626304445</v>
       </c>
       <c r="F5">
-        <v>1.052213983691402</v>
+        <v>1.038323253244511</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04106319003654</v>
+        <v>1.053669150512056</v>
       </c>
       <c r="J5">
-        <v>1.042072747288372</v>
+        <v>1.03833564418388</v>
       </c>
       <c r="K5">
-        <v>1.046983939212209</v>
+        <v>1.045749140442404</v>
       </c>
       <c r="L5">
-        <v>1.038807330049264</v>
+        <v>1.032665701188755</v>
       </c>
       <c r="M5">
-        <v>1.054606727682174</v>
+        <v>1.047766574915364</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037685505543327</v>
+        <v>1.020050052724854</v>
       </c>
       <c r="D6">
-        <v>1.044604065931539</v>
+        <v>1.036422735789773</v>
       </c>
       <c r="E6">
-        <v>1.036409728095722</v>
+        <v>1.023200251421857</v>
       </c>
       <c r="F6">
-        <v>1.052253604378659</v>
+        <v>1.038492981435901</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04107362252708</v>
+        <v>1.053728983288527</v>
       </c>
       <c r="J6">
-        <v>1.042096067691757</v>
+        <v>1.038438591273314</v>
       </c>
       <c r="K6">
-        <v>1.047006532597862</v>
+        <v>1.045850540437164</v>
       </c>
       <c r="L6">
-        <v>1.038832201393719</v>
+        <v>1.032772152655292</v>
       </c>
       <c r="M6">
-        <v>1.054637696630247</v>
+        <v>1.047898631804107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037412884126627</v>
+        <v>1.018799401964431</v>
       </c>
       <c r="D7">
-        <v>1.044388905147593</v>
+        <v>1.035465204668548</v>
       </c>
       <c r="E7">
-        <v>1.036178370347967</v>
+        <v>1.022203091184014</v>
       </c>
       <c r="F7">
-        <v>1.051981236431108</v>
+        <v>1.037322633806353</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041001796535876</v>
+        <v>1.053315421342192</v>
       </c>
       <c r="J7">
-        <v>1.041935700252936</v>
+        <v>1.037728223341837</v>
       </c>
       <c r="K7">
-        <v>1.046851153708946</v>
+        <v>1.045150775012825</v>
       </c>
       <c r="L7">
-        <v>1.038661193105571</v>
+        <v>1.032037816879775</v>
       </c>
       <c r="M7">
-        <v>1.054424767384248</v>
+        <v>1.046987688422332</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036274405919202</v>
+        <v>1.013471218176691</v>
       </c>
       <c r="D8">
-        <v>1.043490394030603</v>
+        <v>1.031390846972863</v>
       </c>
       <c r="E8">
-        <v>1.035212989945838</v>
+        <v>1.017966408213078</v>
       </c>
       <c r="F8">
-        <v>1.050844573478876</v>
+        <v>1.032347347885719</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040699333320647</v>
+        <v>1.051532568286231</v>
       </c>
       <c r="J8">
-        <v>1.041265101317679</v>
+        <v>1.034695737261299</v>
       </c>
       <c r="K8">
-        <v>1.046201143277331</v>
+        <v>1.042161756547068</v>
       </c>
       <c r="L8">
-        <v>1.037946708582463</v>
+        <v>1.028908390650535</v>
       </c>
       <c r="M8">
-        <v>1.053535243909376</v>
+        <v>1.043106280091074</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034272259221552</v>
+        <v>1.003675997397897</v>
       </c>
       <c r="D9">
-        <v>1.04191032564214</v>
+        <v>1.023922903659413</v>
       </c>
       <c r="E9">
-        <v>1.03351822497897</v>
+        <v>1.010224640289225</v>
       </c>
       <c r="F9">
-        <v>1.048848495713122</v>
+        <v>1.023244438359621</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040157952624649</v>
+        <v>1.04817725437654</v>
       </c>
       <c r="J9">
-        <v>1.040082409325875</v>
+        <v>1.029099611199528</v>
       </c>
       <c r="K9">
-        <v>1.04505374295752</v>
+        <v>1.036639416095431</v>
       </c>
       <c r="L9">
-        <v>1.036688919936835</v>
+        <v>1.02315397972041</v>
       </c>
       <c r="M9">
-        <v>1.0519697219371</v>
+        <v>1.03597132086915</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03294026907444</v>
+        <v>0.9968456245776612</v>
       </c>
       <c r="D10">
-        <v>1.040859212791867</v>
+        <v>1.018733401821774</v>
       </c>
       <c r="E10">
-        <v>1.032392757582808</v>
+        <v>1.004860517368102</v>
       </c>
       <c r="F10">
-        <v>1.047522500707305</v>
+        <v>1.016928576155822</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039791428730079</v>
+        <v>1.045787330297493</v>
       </c>
       <c r="J10">
-        <v>1.039293339574344</v>
+        <v>1.025184955389633</v>
       </c>
       <c r="K10">
-        <v>1.044287539338563</v>
+        <v>1.032772460788794</v>
       </c>
       <c r="L10">
-        <v>1.035851294112001</v>
+        <v>1.019142564739143</v>
       </c>
       <c r="M10">
-        <v>1.050927429659646</v>
+        <v>1.030998761981065</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032364178774991</v>
+        <v>0.9938102956081458</v>
       </c>
       <c r="D11">
-        <v>1.040404627671755</v>
+        <v>1.016432221762325</v>
       </c>
       <c r="E11">
-        <v>1.031906476908553</v>
+        <v>1.002485540007837</v>
       </c>
       <c r="F11">
-        <v>1.046949472897795</v>
+        <v>1.014129964268601</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039631400303726</v>
+        <v>1.044713918178374</v>
       </c>
       <c r="J11">
-        <v>1.038951534311405</v>
+        <v>1.023442860013202</v>
       </c>
       <c r="K11">
-        <v>1.043955478977021</v>
+        <v>1.031050764084301</v>
       </c>
       <c r="L11">
-        <v>1.035488822469964</v>
+        <v>1.017360734417692</v>
       </c>
       <c r="M11">
-        <v>1.050476453974149</v>
+        <v>1.02879024066182</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032150295317041</v>
+        <v>0.9926705679434104</v>
       </c>
       <c r="D12">
-        <v>1.040235859381373</v>
+        <v>1.015568965645642</v>
       </c>
       <c r="E12">
-        <v>1.031726010701301</v>
+        <v>1.001595139197234</v>
       </c>
       <c r="F12">
-        <v>1.046736797438588</v>
+        <v>1.013080383035828</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039571760875345</v>
+        <v>1.044309206774371</v>
       </c>
       <c r="J12">
-        <v>1.038824553849997</v>
+        <v>1.022788394633229</v>
       </c>
       <c r="K12">
-        <v>1.043832094769757</v>
+        <v>1.03040384620797</v>
       </c>
       <c r="L12">
-        <v>1.035354219590471</v>
+        <v>1.016691842533284</v>
       </c>
       <c r="M12">
-        <v>1.050308994683799</v>
+        <v>1.027961202085961</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032196169400141</v>
+        <v>0.9929156086359615</v>
       </c>
       <c r="D13">
-        <v>1.040272056885355</v>
+        <v>1.015754527612673</v>
       </c>
       <c r="E13">
-        <v>1.031764714043583</v>
+        <v>1.001786511810248</v>
       </c>
       <c r="F13">
-        <v>1.04678240920795</v>
+        <v>1.013305984459485</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039584562671626</v>
+        <v>1.0443962936188</v>
       </c>
       <c r="J13">
-        <v>1.038851792420162</v>
+        <v>1.022929118518876</v>
       </c>
       <c r="K13">
-        <v>1.043858562991032</v>
+        <v>1.030542952310215</v>
       </c>
       <c r="L13">
-        <v>1.035383090750169</v>
+        <v>1.016835645756948</v>
       </c>
       <c r="M13">
-        <v>1.050344912840161</v>
+        <v>1.028139433461547</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032346497009902</v>
+        <v>0.9937163392565964</v>
       </c>
       <c r="D14">
-        <v>1.040390675491325</v>
+        <v>1.016361040255873</v>
       </c>
       <c r="E14">
-        <v>1.031891556239931</v>
+        <v>1.002412109301805</v>
       </c>
       <c r="F14">
-        <v>1.046931889546962</v>
+        <v>1.014043413415379</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039626474519612</v>
+        <v>1.044680588203732</v>
       </c>
       <c r="J14">
-        <v>1.038941038442817</v>
+        <v>1.023388913972726</v>
       </c>
       <c r="K14">
-        <v>1.04394528085376</v>
+        <v>1.030997442469623</v>
       </c>
       <c r="L14">
-        <v>1.035477695427849</v>
+        <v>1.017305589039958</v>
       </c>
       <c r="M14">
-        <v>1.050462610643783</v>
+        <v>1.028721891717045</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032439132387908</v>
+        <v>0.9942080513791323</v>
       </c>
       <c r="D15">
-        <v>1.040463771624831</v>
+        <v>1.016733595589689</v>
       </c>
       <c r="E15">
-        <v>1.031969729167744</v>
+        <v>1.002796458632363</v>
       </c>
       <c r="F15">
-        <v>1.047024012239965</v>
+        <v>1.014496421290397</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0396522716115</v>
+        <v>1.044854950286858</v>
       </c>
       <c r="J15">
-        <v>1.038996023411599</v>
+        <v>1.023671222495996</v>
       </c>
       <c r="K15">
-        <v>1.043998705035564</v>
+        <v>1.031276478601122</v>
       </c>
       <c r="L15">
-        <v>1.035535989198768</v>
+        <v>1.017594194327418</v>
       </c>
       <c r="M15">
-        <v>1.050535135234495</v>
+        <v>1.029079599592581</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03297851653366</v>
+        <v>0.9970453818692196</v>
       </c>
       <c r="D16">
-        <v>1.04088939391795</v>
+        <v>1.018884952941688</v>
       </c>
       <c r="E16">
-        <v>1.032425052785473</v>
+        <v>1.005017003923231</v>
       </c>
       <c r="F16">
-        <v>1.047560554779647</v>
+        <v>1.017112927379876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039802021517811</v>
+        <v>1.045857739492581</v>
       </c>
       <c r="J16">
-        <v>1.039316021366594</v>
+        <v>1.025299555858572</v>
       </c>
       <c r="K16">
-        <v>1.044309571104813</v>
+        <v>1.032885702823484</v>
       </c>
       <c r="L16">
-        <v>1.035875355030293</v>
+        <v>1.01925984850762</v>
       </c>
       <c r="M16">
-        <v>1.050957366802308</v>
+        <v>1.031144136042539</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03331703840869</v>
+        <v>0.9988039461597573</v>
       </c>
       <c r="D17">
-        <v>1.041156524959712</v>
+        <v>1.020219707249207</v>
       </c>
       <c r="E17">
-        <v>1.0327109486945</v>
+        <v>1.0063956398952</v>
       </c>
       <c r="F17">
-        <v>1.047897419354643</v>
+        <v>1.01873679019717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039895602489991</v>
+        <v>1.046476298291946</v>
       </c>
       <c r="J17">
-        <v>1.039516712902177</v>
+        <v>1.026308164671271</v>
       </c>
       <c r="K17">
-        <v>1.044504492638904</v>
+        <v>1.033882262578484</v>
       </c>
       <c r="L17">
-        <v>1.036088291634855</v>
+        <v>1.020292452017734</v>
       </c>
       <c r="M17">
-        <v>1.051222314610032</v>
+        <v>1.03242408213523</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033514557061471</v>
+        <v>0.9998222288741045</v>
       </c>
       <c r="D18">
-        <v>1.04131239128647</v>
+        <v>1.020993053847038</v>
       </c>
       <c r="E18">
-        <v>1.032877808535118</v>
+        <v>1.007194757425935</v>
       </c>
       <c r="F18">
-        <v>1.048094016324164</v>
+        <v>1.019677838909477</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039950059164907</v>
+        <v>1.046833387287697</v>
       </c>
       <c r="J18">
-        <v>1.039633759981075</v>
+        <v>1.026891953870799</v>
       </c>
       <c r="K18">
-        <v>1.044618159091394</v>
+        <v>1.03445899842801</v>
       </c>
       <c r="L18">
-        <v>1.036212515659937</v>
+        <v>1.020890444987106</v>
       </c>
       <c r="M18">
-        <v>1.051376887248904</v>
+        <v>1.03316533719665</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03358191672635</v>
+        <v>1.000168189341053</v>
       </c>
       <c r="D19">
-        <v>1.041365546667061</v>
+        <v>1.021255875066233</v>
       </c>
       <c r="E19">
-        <v>1.032934720608604</v>
+        <v>1.007466395805212</v>
       </c>
       <c r="F19">
-        <v>1.048161069339286</v>
+        <v>1.019997687349776</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039968605831061</v>
+        <v>1.046954522851178</v>
       </c>
       <c r="J19">
-        <v>1.039673667786167</v>
+        <v>1.027090254104722</v>
       </c>
       <c r="K19">
-        <v>1.044656911630708</v>
+        <v>1.034654889092306</v>
       </c>
       <c r="L19">
-        <v>1.036254876484652</v>
+        <v>1.021093623401494</v>
       </c>
       <c r="M19">
-        <v>1.051429598086596</v>
+        <v>1.033417195424216</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03328071152604</v>
+        <v>0.9986160444450876</v>
       </c>
       <c r="D20">
-        <v>1.041127858800845</v>
+        <v>1.020077040476358</v>
       </c>
       <c r="E20">
-        <v>1.032680264248443</v>
+        <v>1.006248246922817</v>
       </c>
       <c r="F20">
-        <v>1.047861265628302</v>
+        <v>1.018563201698876</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039885575322236</v>
+        <v>1.046410317547445</v>
       </c>
       <c r="J20">
-        <v>1.039495181925265</v>
+        <v>1.02620041969709</v>
       </c>
       <c r="K20">
-        <v>1.044483582288247</v>
+        <v>1.03377581291234</v>
       </c>
       <c r="L20">
-        <v>1.036065443297878</v>
+        <v>1.020182111062856</v>
       </c>
       <c r="M20">
-        <v>1.051193884786678</v>
+        <v>1.032287308524789</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032302226444815</v>
+        <v>0.9934808877467176</v>
       </c>
       <c r="D21">
-        <v>1.040355742912228</v>
+        <v>1.016182674986507</v>
       </c>
       <c r="E21">
-        <v>1.031854199941622</v>
+        <v>1.002228116699749</v>
       </c>
       <c r="F21">
-        <v>1.046887866534261</v>
+        <v>1.013826540346625</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039614137977768</v>
+        <v>1.044597037830731</v>
       </c>
       <c r="J21">
-        <v>1.038914758222056</v>
+        <v>1.023253721795155</v>
       </c>
       <c r="K21">
-        <v>1.043919745759685</v>
+        <v>1.030863813306943</v>
       </c>
       <c r="L21">
-        <v>1.035449835725399</v>
+        <v>1.017167399324775</v>
       </c>
       <c r="M21">
-        <v>1.050427950094546</v>
+        <v>1.028550615454577</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031687605642651</v>
+        <v>0.9901808911697167</v>
       </c>
       <c r="D22">
-        <v>1.039870774832715</v>
+        <v>1.013684782147408</v>
       </c>
       <c r="E22">
-        <v>1.031335747586074</v>
+        <v>0.9996526917882895</v>
       </c>
       <c r="F22">
-        <v>1.046276851292288</v>
+        <v>1.010790002606507</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039442330820628</v>
+        <v>1.043422141221611</v>
       </c>
       <c r="J22">
-        <v>1.038549714808012</v>
+        <v>1.021358187466297</v>
       </c>
       <c r="K22">
-        <v>1.043564995788027</v>
+        <v>1.028989929631913</v>
       </c>
       <c r="L22">
-        <v>1.035062983265976</v>
+        <v>1.01523103206332</v>
       </c>
       <c r="M22">
-        <v>1.049946684864848</v>
+        <v>1.026150695675289</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032013371201166</v>
+        <v>0.9919372500562131</v>
       </c>
       <c r="D23">
-        <v>1.040127818407934</v>
+        <v>1.015013769278478</v>
       </c>
       <c r="E23">
-        <v>1.031610500542396</v>
+        <v>1.001022636039381</v>
       </c>
       <c r="F23">
-        <v>1.046600666701554</v>
+        <v>1.012405428678028</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039533517208406</v>
+        <v>1.044048348182763</v>
       </c>
       <c r="J23">
-        <v>1.03874324106725</v>
+        <v>1.022367213898024</v>
       </c>
       <c r="K23">
-        <v>1.043753078134826</v>
+        <v>1.029987491148208</v>
       </c>
       <c r="L23">
-        <v>1.03526804126252</v>
+        <v>1.016261519019231</v>
       </c>
       <c r="M23">
-        <v>1.050201782938829</v>
+        <v>1.027427858399752</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033297125881278</v>
+        <v>0.9987009721465926</v>
       </c>
       <c r="D24">
-        <v>1.041140811639603</v>
+        <v>1.020141521471559</v>
       </c>
       <c r="E24">
-        <v>1.032694128915125</v>
+        <v>1.006314862941429</v>
       </c>
       <c r="F24">
-        <v>1.047877601602702</v>
+        <v>1.018641657757648</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039890106561836</v>
+        <v>1.046440142843198</v>
       </c>
       <c r="J24">
-        <v>1.039504910886932</v>
+        <v>1.026249118944341</v>
       </c>
       <c r="K24">
-        <v>1.044493030862231</v>
+        <v>1.033823926944615</v>
       </c>
       <c r="L24">
-        <v>1.036075767410948</v>
+        <v>1.02023198267969</v>
       </c>
       <c r="M24">
-        <v>1.051206730898116</v>
+        <v>1.032349127032471</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03478937950228</v>
+        <v>1.006259131888163</v>
       </c>
       <c r="D25">
-        <v>1.042318419033517</v>
+        <v>1.025889411836255</v>
       </c>
       <c r="E25">
-        <v>1.033955598429503</v>
+        <v>1.012260519924649</v>
       </c>
       <c r="F25">
-        <v>1.049363704881868</v>
+        <v>1.025639691567581</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040298903491952</v>
+        <v>1.049070938652445</v>
       </c>
       <c r="J25">
-        <v>1.040388276015139</v>
+        <v>1.030577671869993</v>
       </c>
       <c r="K25">
-        <v>1.045350602710318</v>
+        <v>1.038098694972196</v>
       </c>
       <c r="L25">
-        <v>1.037013935447001</v>
+        <v>1.024671442502041</v>
       </c>
       <c r="M25">
-        <v>1.05237420865781</v>
+        <v>1.037852608183553</v>
       </c>
     </row>
   </sheetData>
